--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F76B8-7521-4166-8125-28DEB1E7B5BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B59402-D52E-468F-8C2A-68739DAEE176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="249">
   <si>
     <t>""</t>
   </si>
@@ -1589,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1EA89-7375-4870-9D13-0AD3FB6779F1}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2417,7 +2417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D207781B-A442-4CCD-86DC-AFB28A03080B}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2660,8 +2662,8 @@
       <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>0</v>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>181</v>
@@ -2720,8 +2722,8 @@
       <c r="Z5" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>0</v>
+      <c r="AA5" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>23</v>
@@ -2753,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>139</v>
@@ -2807,7 +2809,7 @@
         <v>230</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>2</v>
@@ -2836,7 +2838,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>134</v>
@@ -2878,7 +2880,7 @@
         <v>231</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>1</v>
@@ -2901,7 +2903,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>235</v>
@@ -2941,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>170</v>
@@ -2964,7 +2966,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>209</v>
@@ -2996,7 +2998,7 @@
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
@@ -3016,7 +3018,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>210</v>
@@ -3044,9 +3046,6 @@
         <v>211</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -3062,7 +3061,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>186</v>
@@ -3106,7 +3105,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3148,7 +3147,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3187,7 +3186,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3224,7 +3223,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3261,7 +3260,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3298,7 +3297,7 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3332,7 +3331,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3366,7 +3365,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3400,7 +3399,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3434,7 +3433,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3468,7 +3467,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3501,9 +3500,6 @@
         <v>124</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B59402-D52E-468F-8C2A-68739DAEE176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0339F-1543-4DE6-B2D6-AF2E3952122D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="248">
   <si>
     <t>""</t>
   </si>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>obligatory</t>
-  </si>
-  <si>
-    <t>auto_analisis</t>
   </si>
   <si>
     <t>auto_analysis</t>
@@ -1601,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1609,7 +1606,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>57</v>
@@ -1624,7 +1621,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>10</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1732,7 +1729,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>58</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>59</v>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
@@ -1862,7 +1859,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>221</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>60</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1913,12 +1910,12 @@
         <v>237</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>33</v>
@@ -1948,7 +1945,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -1963,7 +1960,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>222</v>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>61</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2006,7 +2003,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2032,7 +2029,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>63</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -2084,7 +2081,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>41</v>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>42</v>
@@ -2122,12 +2119,12 @@
         <v>237</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>43</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>45</v>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>48</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>51</v>
@@ -2262,7 +2259,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2277,7 +2274,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>53</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>54</v>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>225</v>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>55</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>226</v>
@@ -2344,7 +2341,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>220</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>219</v>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>65</v>
@@ -2383,7 +2380,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>66</v>
@@ -2396,10 +2393,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -2418,7 +2415,7 @@
   <dimension ref="A1:AD87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G22"/>
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2452,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2732,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2818,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0339F-1543-4DE6-B2D6-AF2E3952122D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B89E67-1FE9-4686-A11A-78B55E9E6522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="247">
   <si>
     <t>""</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>aperiodischer_bedarf</t>
-  </si>
-  <si>
-    <t>dropdown_fazit_verkehrsanbindung</t>
   </si>
   <si>
     <t>objektkategorie</t>
@@ -1111,7 +1108,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,6 +1193,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1586,7 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1EA89-7375-4870-9D13-0AD3FB6779F1}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1598,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1606,22 +1608,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1630,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1645,13 +1647,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>10</v>
@@ -1664,7 +1666,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1677,7 +1679,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1690,7 +1692,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1703,7 +1705,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1716,7 +1718,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1729,7 +1731,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1742,7 +1744,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1755,7 +1757,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1768,7 +1770,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1781,10 +1783,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1794,10 +1796,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -1807,7 +1809,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1820,7 +1822,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1833,7 +1835,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
@@ -1846,7 +1848,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
@@ -1859,7 +1861,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
@@ -1872,10 +1874,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>8</v>
@@ -1885,10 +1887,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1898,7 +1900,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1907,15 +1909,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -1924,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>33</v>
@@ -1939,13 +1941,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -1954,46 +1956,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -2003,7 +2005,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -2016,7 +2018,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2029,7 +2031,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2042,10 +2044,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
@@ -2055,10 +2057,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -2068,7 +2070,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -2081,7 +2083,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -2094,7 +2096,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>41</v>
@@ -2107,7 +2109,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>42</v>
@@ -2116,15 +2118,15 @@
         <v>8</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>43</v>
@@ -2133,13 +2135,13 @@
         <v>11</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -2148,13 +2150,13 @@
         <v>11</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>45</v>
@@ -2163,13 +2165,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -2178,13 +2180,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -2193,13 +2195,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>48</v>
@@ -2208,13 +2210,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -2223,13 +2225,13 @@
         <v>11</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>50</v>
@@ -2238,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>51</v>
@@ -2253,13 +2255,13 @@
         <v>11</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2268,13 +2270,13 @@
         <v>11</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>53</v>
@@ -2283,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>54</v>
@@ -2302,10 +2304,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>11</v>
@@ -2315,7 +2317,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>55</v>
@@ -2328,10 +2330,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
@@ -2341,10 +2343,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -2354,10 +2356,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -2367,10 +2369,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -2380,10 +2382,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -2393,10 +2395,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -2412,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D207781B-A442-4CCD-86DC-AFB28A03080B}">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,19 +2448,19 @@
     <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>6</v>
@@ -2491,7 +2493,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>29</v>
@@ -2506,7 +2508,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>35</v>
@@ -2536,24 +2538,27 @@
         <v>55</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2562,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
@@ -2571,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -2586,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>0</v>
@@ -2613,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -2631,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>0</v>
@@ -2639,13 +2644,16 @@
       <c r="AD4" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2654,73 +2662,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="X5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>23</v>
@@ -2729,81 +2737,84 @@
         <v>1</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>23</v>
@@ -2815,66 +2826,69 @@
         <v>2</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="M7" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>2</v>
@@ -2885,224 +2899,235 @@
       <c r="AC7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="25"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="25"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="25"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="25"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3118,33 +3143,34 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3160,7 +3186,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3169,21 +3195,22 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3206,21 +3233,22 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3243,21 +3271,22 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3280,21 +3309,22 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3317,18 +3347,19 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3351,18 +3382,19 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3385,18 +3417,19 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3419,18 +3452,19 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3453,18 +3487,19 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3487,14 +3522,15 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -3518,14 +3554,15 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1"/>
       <c r="D24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3551,14 +3588,15 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3584,14 +3622,15 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3617,17 +3656,18 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3653,14 +3693,15 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3686,14 +3727,15 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3719,14 +3761,15 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3752,14 +3795,15 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1"/>
       <c r="D31" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3785,15 +3829,16 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3819,15 +3864,16 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3853,10 +3899,11 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -3886,10 +3933,11 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7"/>
@@ -3919,10 +3967,11 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
@@ -3952,10 +4001,11 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -3985,10 +4035,11 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -4018,10 +4069,11 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -4051,10 +4103,11 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -4084,10 +4137,11 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
@@ -4117,10 +4171,11 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7"/>
@@ -4150,10 +4205,11 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -4183,10 +4239,11 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
@@ -4216,10 +4273,11 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -4249,10 +4307,11 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -4282,10 +4341,11 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -4315,10 +4375,11 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -4348,10 +4409,11 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -4381,10 +4443,11 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -4414,10 +4477,11 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -4447,10 +4511,11 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -4480,10 +4545,11 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -4513,10 +4579,11 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -4546,10 +4613,11 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -4579,10 +4647,11 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7"/>
@@ -4612,10 +4681,11 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -4645,10 +4715,11 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7"/>
@@ -4678,10 +4749,11 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="7"/>
@@ -4711,10 +4783,11 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
@@ -4744,10 +4817,11 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -4777,10 +4851,11 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="7"/>
@@ -4810,10 +4885,11 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="7"/>
@@ -4843,10 +4919,11 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD63" s="1"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="7"/>
@@ -4876,10 +4953,11 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD64" s="1"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="7"/>
@@ -4909,10 +4987,11 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="1"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="7"/>
@@ -4942,10 +5021,11 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="1"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="7"/>
@@ -4975,10 +5055,11 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="1"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -5008,10 +5089,11 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD68" s="1"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="7"/>
@@ -5041,10 +5123,11 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="1"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="7"/>
@@ -5074,10 +5157,11 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="1"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="7"/>
@@ -5107,10 +5191,11 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="1"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="7"/>
@@ -5140,10 +5225,11 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="1"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -5173,10 +5259,11 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD73" s="1"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
@@ -5206,10 +5293,11 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="1"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
@@ -5239,10 +5327,11 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="1"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
@@ -5272,10 +5361,11 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="1"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -5305,10 +5395,11 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="1"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -5338,10 +5429,11 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD78" s="1"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -5371,10 +5463,11 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD79" s="1"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
@@ -5404,6 +5497,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B89E67-1FE9-4686-A11A-78B55E9E6522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB87A9-03B0-4DAA-A6B4-543AB2C5DFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="246">
   <si>
     <t>""</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>begruendung_straße</t>
-  </si>
-  <si>
-    <t>parkplatzsituation_vorhandene_stellplaetze</t>
   </si>
   <si>
     <t>stellplaetze_carport</t>
@@ -1586,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1EA89-7375-4870-9D13-0AD3FB6779F1}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1608,22 +1605,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1632,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1647,13 +1644,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>10</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1679,7 +1676,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1692,7 +1689,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1783,10 +1780,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1796,10 +1793,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -1809,7 +1806,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
@@ -1848,7 +1845,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
@@ -1874,10 +1871,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>8</v>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1900,7 +1897,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1909,15 +1906,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -1926,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>33</v>
@@ -1941,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -1956,46 +1953,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -2018,7 +2015,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2044,10 +2041,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
@@ -2057,10 +2054,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -2070,10 +2067,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -2083,10 +2080,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -2096,10 +2093,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
@@ -2109,192 +2106,192 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>8</v>
@@ -2304,10 +2301,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>11</v>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>8</v>
@@ -2330,10 +2327,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
@@ -2343,10 +2340,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -2356,10 +2353,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -2369,10 +2366,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -2382,10 +2379,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -2395,10 +2392,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -2416,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D207781B-A442-4CCD-86DC-AFB28A03080B}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,13 +2451,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>6</v>
@@ -2493,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>29</v>
@@ -2508,7 +2505,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>35</v>
@@ -2520,37 +2517,37 @@
         <v>37</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="AA3" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC3" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="AE3" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2558,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2567,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
@@ -2576,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>0</v>
@@ -2618,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -2636,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>0</v>
@@ -2650,10 +2647,10 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2662,73 +2659,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="X5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>23</v>
@@ -2740,81 +2737,81 @@
         <v>1</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>23</v>
@@ -2829,66 +2826,66 @@
         <v>2</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="M7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>2</v>
@@ -2906,61 +2903,61 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>4</v>
@@ -2972,50 +2969,50 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
@@ -3027,43 +3024,43 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
@@ -3071,43 +3068,43 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3116,18 +3113,18 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3143,13 +3140,13 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -3159,18 +3156,18 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3186,7 +3183,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3199,18 +3196,18 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3237,18 +3234,18 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3275,18 +3272,18 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3313,18 +3310,18 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3351,15 +3348,15 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3386,15 +3383,15 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3421,15 +3418,15 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3456,15 +3453,15 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3491,15 +3488,15 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3526,11 +3523,11 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -3558,11 +3555,11 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1"/>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3592,11 +3589,11 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3626,11 +3623,11 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3660,14 +3657,14 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3697,11 +3694,11 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3731,11 +3728,11 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3765,11 +3762,11 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3799,11 +3796,11 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1"/>
       <c r="D31" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3833,12 +3830,12 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3868,12 +3865,12 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7"/>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -4039,7 +4036,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -4073,7 +4070,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -4141,7 +4138,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7"/>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -4379,7 +4376,7 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -4413,7 +4410,7 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -4515,7 +4512,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -4651,7 +4648,7 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7"/>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -4719,7 +4716,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7"/>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="7"/>
@@ -4787,7 +4784,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="7"/>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="7"/>
@@ -4923,7 +4920,7 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="7"/>
@@ -4957,7 +4954,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="7"/>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="7"/>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="7"/>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="7"/>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="7"/>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="7"/>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="7"/>
@@ -5229,7 +5226,7 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -5263,7 +5260,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
@@ -5297,7 +5294,7 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -5433,7 +5430,7 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB87A9-03B0-4DAA-A6B4-543AB2C5DFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
     <sheet name="Dropdownvalues" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,20 +24,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{64E12C80-61E7-4E77-B285-99DCFD601D68}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="246">
   <si>
     <t>""</t>
   </si>
@@ -801,8 +800,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +856,13 @@
       <sz val="11"/>
       <name val="Raleway"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -936,16 +942,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,7 +980,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -987,7 +993,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1105,7 +1111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,117 +1199,118 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="109">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1573,37 +1580,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D1EA89-7375-4870-9D13-0AD3FB6779F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18">
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
         <v>241</v>
       </c>
@@ -1618,7 +1625,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
         <v>241</v>
       </c>
@@ -1633,7 +1640,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="33" t="s">
         <v>241</v>
       </c>
@@ -1648,7 +1655,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
         <v>241</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
         <v>241</v>
       </c>
@@ -1674,7 +1681,7 @@
       <c r="D7" s="26"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
         <v>241</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
         <v>241</v>
       </c>
@@ -1700,7 +1707,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>241</v>
       </c>
@@ -1713,7 +1720,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
         <v>241</v>
       </c>
@@ -1726,7 +1733,7 @@
       <c r="D11" s="26"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
         <v>241</v>
       </c>
@@ -1739,7 +1746,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
@@ -1752,7 +1759,7 @@
       <c r="D13" s="26"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="26" t="s">
         <v>241</v>
       </c>
@@ -1765,7 +1772,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
         <v>241</v>
       </c>
@@ -1778,7 +1785,7 @@
       <c r="D15" s="26"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="26" t="s">
         <v>241</v>
       </c>
@@ -1791,7 +1798,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
         <v>241</v>
       </c>
@@ -1804,7 +1811,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
         <v>241</v>
       </c>
@@ -1817,7 +1824,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
         <v>241</v>
       </c>
@@ -1830,7 +1837,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
         <v>241</v>
       </c>
@@ -1843,7 +1850,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
         <v>241</v>
       </c>
@@ -1856,7 +1863,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
         <v>241</v>
       </c>
@@ -1869,7 +1876,7 @@
       <c r="D22" s="26"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
         <v>241</v>
       </c>
@@ -1882,7 +1889,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
         <v>241</v>
       </c>
@@ -1895,7 +1902,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
         <v>241</v>
       </c>
@@ -1912,7 +1919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
         <v>241</v>
       </c>
@@ -1927,7 +1934,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
         <v>241</v>
       </c>
@@ -1942,7 +1949,7 @@
       </c>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
         <v>241</v>
       </c>
@@ -1957,7 +1964,7 @@
       </c>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
         <v>241</v>
       </c>
@@ -1972,7 +1979,7 @@
       </c>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="26" t="s">
         <v>241</v>
       </c>
@@ -1987,7 +1994,7 @@
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
         <v>241</v>
       </c>
@@ -2000,7 +2007,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
         <v>241</v>
       </c>
@@ -2013,7 +2020,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
         <v>241</v>
       </c>
@@ -2026,7 +2033,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="26" t="s">
         <v>241</v>
       </c>
@@ -2039,7 +2046,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
         <v>241</v>
       </c>
@@ -2052,7 +2059,7 @@
       <c r="D35" s="26"/>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
         <v>241</v>
       </c>
@@ -2065,7 +2072,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="29"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
         <v>241</v>
       </c>
@@ -2078,7 +2085,7 @@
       <c r="D37" s="26"/>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="26" t="s">
         <v>241</v>
       </c>
@@ -2091,7 +2098,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="29"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="26" t="s">
         <v>241</v>
       </c>
@@ -2104,7 +2111,7 @@
       <c r="D39" s="26"/>
       <c r="E39" s="29"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
         <v>241</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
         <v>241</v>
       </c>
@@ -2136,7 +2143,7 @@
       </c>
       <c r="E41" s="29"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
         <v>241</v>
       </c>
@@ -2151,7 +2158,7 @@
       </c>
       <c r="E42" s="29"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
         <v>241</v>
       </c>
@@ -2166,7 +2173,7 @@
       </c>
       <c r="E43" s="29"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
         <v>241</v>
       </c>
@@ -2181,7 +2188,7 @@
       </c>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
         <v>241</v>
       </c>
@@ -2196,7 +2203,7 @@
       </c>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
         <v>241</v>
       </c>
@@ -2211,7 +2218,7 @@
       </c>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
         <v>241</v>
       </c>
@@ -2226,7 +2233,7 @@
       </c>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
         <v>241</v>
       </c>
@@ -2241,7 +2248,7 @@
       </c>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
         <v>241</v>
       </c>
@@ -2256,7 +2263,7 @@
       </c>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
         <v>241</v>
       </c>
@@ -2271,7 +2278,7 @@
       </c>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
         <v>241</v>
       </c>
@@ -2286,7 +2293,7 @@
       </c>
       <c r="E51" s="29"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
         <v>241</v>
       </c>
@@ -2299,7 +2306,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="29"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
         <v>241</v>
       </c>
@@ -2309,10 +2316,12 @@
       <c r="C53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="E53" s="29"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
         <v>241</v>
       </c>
@@ -2325,7 +2334,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="29"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
         <v>241</v>
       </c>
@@ -2335,10 +2344,12 @@
       <c r="C55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="E55" s="29"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
         <v>241</v>
       </c>
@@ -2351,7 +2362,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="29"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
         <v>241</v>
       </c>
@@ -2364,7 +2375,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="29"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
         <v>241</v>
       </c>
@@ -2377,7 +2388,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="29"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
         <v>241</v>
       </c>
@@ -2390,7 +2401,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="29"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
         <v>240</v>
       </c>
@@ -2405,57 +2416,62 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D207781B-A442-4CCD-86DC-AFB28A03080B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="18">
       <c r="A1" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="15" thickBot="1"/>
+    <row r="3" spans="1:31" ht="16" thickTop="1" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -2550,7 +2566,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2756,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2829,7 +2845,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2901,7 +2917,7 @@
       </c>
       <c r="AE7" s="24"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2967,7 +2983,7 @@
       </c>
       <c r="AE8" s="25"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -3022,7 +3038,7 @@
       </c>
       <c r="AE9" s="25"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
@@ -3066,7 +3082,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3111,7 +3127,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
@@ -3154,7 +3170,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="4" t="s">
         <v>81</v>
       </c>
@@ -3194,7 +3210,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
@@ -3232,7 +3248,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
@@ -3270,7 +3286,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="4" t="s">
         <v>104</v>
       </c>
@@ -3308,7 +3324,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
@@ -3346,7 +3362,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -3381,7 +3397,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -3416,7 +3432,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
@@ -3451,7 +3467,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -3486,7 +3502,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>105</v>
       </c>
@@ -3521,7 +3537,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
@@ -3553,7 +3569,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
@@ -3587,7 +3603,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>187</v>
       </c>
@@ -3621,7 +3637,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
@@ -3655,7 +3671,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -3692,7 +3708,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
@@ -3726,7 +3742,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
         <v>106</v>
       </c>
@@ -3760,7 +3776,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -3794,7 +3810,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
@@ -3828,7 +3844,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
@@ -3863,7 +3879,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="4" t="s">
         <v>109</v>
       </c>
@@ -3898,7 +3914,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
@@ -3932,7 +3948,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="4" t="s">
         <v>114</v>
       </c>
@@ -3966,7 +3982,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="4" t="s">
         <v>161</v>
       </c>
@@ -4000,7 +4016,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="4" t="s">
         <v>162</v>
       </c>
@@ -4034,7 +4050,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="4" t="s">
         <v>188</v>
       </c>
@@ -4068,7 +4084,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="4" t="s">
         <v>123</v>
       </c>
@@ -4102,7 +4118,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="4" t="s">
         <v>124</v>
       </c>
@@ -4136,7 +4152,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
@@ -4170,7 +4186,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
@@ -4204,7 +4220,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
@@ -4238,7 +4254,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="4" t="s">
         <v>128</v>
       </c>
@@ -4272,7 +4288,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="4" t="s">
         <v>129</v>
       </c>
@@ -4306,7 +4322,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="4" t="s">
         <v>130</v>
       </c>
@@ -4340,7 +4356,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="4" t="s">
         <v>131</v>
       </c>
@@ -4374,7 +4390,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="4" t="s">
         <v>175</v>
       </c>
@@ -4408,7 +4424,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30">
       <c r="A49" s="4" t="s">
         <v>134</v>
       </c>
@@ -4442,7 +4458,7 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30">
       <c r="A50" s="4" t="s">
         <v>135</v>
       </c>
@@ -4476,7 +4492,7 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30">
       <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
@@ -4510,7 +4526,7 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30">
       <c r="A52" s="4" t="s">
         <v>142</v>
       </c>
@@ -4544,7 +4560,7 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30">
       <c r="A53" s="4" t="s">
         <v>143</v>
       </c>
@@ -4578,7 +4594,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30">
       <c r="A54" s="4" t="s">
         <v>144</v>
       </c>
@@ -4612,7 +4628,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30">
       <c r="A55" s="4" t="s">
         <v>145</v>
       </c>
@@ -4646,7 +4662,7 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30">
       <c r="A56" s="4" t="s">
         <v>146</v>
       </c>
@@ -4680,7 +4696,7 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30">
       <c r="A57" s="4" t="s">
         <v>147</v>
       </c>
@@ -4714,7 +4730,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
@@ -4748,7 +4764,7 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" s="4" t="s">
         <v>150</v>
       </c>
@@ -4782,7 +4798,7 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" s="4" t="s">
         <v>151</v>
       </c>
@@ -4816,7 +4832,7 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" s="4" t="s">
         <v>152</v>
       </c>
@@ -4850,7 +4866,7 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="4" t="s">
         <v>153</v>
       </c>
@@ -4884,7 +4900,7 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" s="4" t="s">
         <v>163</v>
       </c>
@@ -4918,7 +4934,7 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="4" t="s">
         <v>160</v>
       </c>
@@ -4952,7 +4968,7 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30">
       <c r="A65" s="4" t="s">
         <v>164</v>
       </c>
@@ -4986,7 +5002,7 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30">
       <c r="A66" s="4" t="s">
         <v>165</v>
       </c>
@@ -5020,7 +5036,7 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30">
       <c r="A67" s="4" t="s">
         <v>166</v>
       </c>
@@ -5054,7 +5070,7 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30">
       <c r="A68" s="4" t="s">
         <v>170</v>
       </c>
@@ -5088,7 +5104,7 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30">
       <c r="A69" s="4" t="s">
         <v>171</v>
       </c>
@@ -5122,7 +5138,7 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30">
       <c r="A70" s="4" t="s">
         <v>173</v>
       </c>
@@ -5156,7 +5172,7 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30">
       <c r="A71" s="4" t="s">
         <v>176</v>
       </c>
@@ -5190,7 +5206,7 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30">
       <c r="A72" s="4" t="s">
         <v>177</v>
       </c>
@@ -5224,7 +5240,7 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30">
       <c r="A73" s="4" t="s">
         <v>178</v>
       </c>
@@ -5258,7 +5274,7 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30">
       <c r="A74" s="4" t="s">
         <v>189</v>
       </c>
@@ -5292,7 +5308,7 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30">
       <c r="A75" s="4" t="s">
         <v>190</v>
       </c>
@@ -5326,7 +5342,7 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30">
       <c r="A76" s="4" t="s">
         <v>191</v>
       </c>
@@ -5360,7 +5376,7 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30">
       <c r="A77" s="4" t="s">
         <v>192</v>
       </c>
@@ -5394,7 +5410,7 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30">
       <c r="A78" s="4" t="s">
         <v>193</v>
       </c>
@@ -5428,7 +5444,7 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30">
       <c r="A79" s="4" t="s">
         <v>194</v>
       </c>
@@ -5462,7 +5478,7 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30">
       <c r="A80" s="4" t="s">
         <v>197</v>
       </c>
@@ -5496,44 +5512,49 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="6">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
@@ -269,15 +269,9 @@
     <t>autobahn</t>
   </si>
   <si>
-    <t>außenbereich</t>
-  </si>
-  <si>
     <t>angespannt</t>
   </si>
   <si>
-    <t>anliegerstraße</t>
-  </si>
-  <si>
     <t>ausbildungsstaette</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>bach</t>
   </si>
   <si>
-    <t>bundesstraße</t>
-  </si>
-  <si>
     <t>bahntrasse</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>buerogebaeude</t>
   </si>
   <si>
-    <t>durchgangsstraße</t>
-  </si>
-  <si>
     <t>dorfgebiet</t>
   </si>
   <si>
@@ -392,9 +380,6 @@
     <t>hauptverkehrsader</t>
   </si>
   <si>
-    <t>hauptstraße</t>
-  </si>
-  <si>
     <t>hafen</t>
   </si>
   <si>
@@ -527,9 +512,6 @@
     <t>see</t>
   </si>
   <si>
-    <t>spielstraße</t>
-  </si>
-  <si>
     <t>s-bahnhof</t>
   </si>
   <si>
@@ -656,9 +638,6 @@
     <t>wohn_und_geschaeftshaeuser</t>
   </si>
   <si>
-    <t>fußgaengerzone</t>
-  </si>
-  <si>
     <t>einfamilienhaeuser</t>
   </si>
   <si>
@@ -795,6 +774,27 @@
   </si>
   <si>
     <t>Micro-Apiparameter</t>
+  </si>
+  <si>
+    <t>aussenbereich</t>
+  </si>
+  <si>
+    <t>begruendung_strasse</t>
+  </si>
+  <si>
+    <t>bundesstrasse</t>
+  </si>
+  <si>
+    <t>spielstrasse</t>
+  </si>
+  <si>
+    <t>hauptstrasse</t>
+  </si>
+  <si>
+    <t>anliegerstrasse</t>
+  </si>
+  <si>
+    <t>durchgangsstrasse</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1000,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1201,7 +1205,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1256,6 +1260,8 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1310,6 +1316,8 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1580,7 +1588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1590,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1612,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -1612,7 +1620,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>55</v>
@@ -1621,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1636,13 +1644,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1651,13 +1659,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>10</v>
@@ -1670,7 +1678,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1683,7 +1691,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1696,7 +1704,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1709,7 +1717,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1722,7 +1730,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1735,7 +1743,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1748,7 +1756,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1761,7 +1769,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1774,7 +1782,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
@@ -1800,7 +1808,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>57</v>
@@ -1813,7 +1821,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1826,7 +1834,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1839,7 +1847,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
@@ -1852,7 +1860,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
@@ -1865,7 +1873,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
@@ -1878,10 +1886,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>8</v>
@@ -1891,7 +1899,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>58</v>
@@ -1904,7 +1912,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1913,15 +1921,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -1930,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>33</v>
@@ -1945,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -1960,28 +1968,28 @@
         <v>8</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
@@ -1990,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>60</v>
@@ -2009,7 +2017,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -2022,7 +2030,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2035,7 +2043,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2048,7 +2056,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>62</v>
@@ -2061,7 +2069,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>61</v>
@@ -2074,7 +2082,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>38</v>
@@ -2087,7 +2095,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>39</v>
@@ -2100,7 +2108,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>40</v>
@@ -2113,7 +2121,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>41</v>
@@ -2122,15 +2130,15 @@
         <v>8</v>
       </c>
       <c r="D40" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
@@ -2139,13 +2147,13 @@
         <v>11</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>43</v>
@@ -2154,13 +2162,13 @@
         <v>11</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
@@ -2169,13 +2177,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>45</v>
@@ -2184,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
@@ -2199,13 +2207,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -2214,13 +2222,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
@@ -2229,13 +2237,13 @@
         <v>11</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>49</v>
@@ -2244,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -2259,13 +2267,13 @@
         <v>11</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>51</v>
@@ -2274,13 +2282,13 @@
         <v>11</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -2289,13 +2297,13 @@
         <v>11</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>53</v>
@@ -2308,22 +2316,22 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>54</v>
@@ -2336,25 +2344,25 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -2364,10 +2372,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -2377,7 +2385,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>63</v>
@@ -2390,7 +2398,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>64</v>
@@ -2403,10 +2411,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -2429,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2467,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18">
       <c r="A1" s="17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1"/>
@@ -2506,7 +2514,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>29</v>
@@ -2521,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>35</v>
@@ -2530,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>62</v>
@@ -2551,10 +2559,10 @@
         <v>54</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AC3" s="34" t="s">
         <v>63</v>
@@ -2563,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="AE3" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" thickTop="1">
@@ -2571,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2580,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
@@ -2589,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -2604,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>0</v>
@@ -2631,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -2649,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>0</v>
@@ -2666,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2675,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>22</v>
@@ -2684,64 +2692,64 @@
         <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>23</v>
@@ -2753,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -2761,73 +2769,73 @@
         <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>23</v>
@@ -2842,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2850,58 +2858,58 @@
         <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>2</v>
@@ -2923,57 +2931,57 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>4</v>
@@ -2985,50 +2993,50 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
@@ -3040,43 +3048,43 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="9" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
@@ -3084,43 +3092,43 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3129,18 +3137,18 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3156,13 +3164,13 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -3172,18 +3180,18 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3199,7 +3207,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3212,18 +3220,18 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3250,18 +3258,18 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3288,18 +3296,18 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3326,18 +3334,18 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3364,15 +3372,15 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="9" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3399,15 +3407,15 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3434,15 +3442,15 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3469,15 +3477,15 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3504,15 +3512,15 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3539,11 +3547,11 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -3571,11 +3579,11 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1"/>
       <c r="D24" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3605,11 +3613,11 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3639,11 +3647,11 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3673,14 +3681,14 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3710,11 +3718,11 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3744,11 +3752,11 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3778,11 +3786,11 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3812,11 +3820,11 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1"/>
       <c r="D31" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3846,12 +3854,12 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3881,12 +3889,12 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3916,7 +3924,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -3950,7 +3958,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7"/>
@@ -3984,7 +3992,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
@@ -4018,7 +4026,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -4052,7 +4060,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -4086,7 +4094,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -4120,7 +4128,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -4154,7 +4162,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
@@ -4188,7 +4196,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7"/>
@@ -4222,7 +4230,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -4256,7 +4264,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
@@ -4290,7 +4298,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -4324,7 +4332,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -4358,7 +4366,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -4392,7 +4400,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -4426,7 +4434,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -4460,7 +4468,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -4494,7 +4502,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -4528,7 +4536,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -4562,7 +4570,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -4596,7 +4604,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -4630,7 +4638,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -4664,7 +4672,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7"/>
@@ -4698,7 +4706,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -4732,7 +4740,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7"/>
@@ -4766,7 +4774,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="7"/>
@@ -4800,7 +4808,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
@@ -4834,7 +4842,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -4868,7 +4876,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="7"/>
@@ -4902,7 +4910,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="7"/>
@@ -4936,7 +4944,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="7"/>
@@ -4970,7 +4978,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="7"/>
@@ -5004,7 +5012,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="7"/>
@@ -5038,7 +5046,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="7"/>
@@ -5072,7 +5080,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -5106,7 +5114,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="7"/>
@@ -5140,7 +5148,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="7"/>
@@ -5174,7 +5182,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="7"/>
@@ -5208,7 +5216,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="7"/>
@@ -5242,7 +5250,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -5276,7 +5284,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
@@ -5310,7 +5318,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
@@ -5344,7 +5352,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
@@ -5378,7 +5386,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -5412,7 +5420,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -5446,7 +5454,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -5480,7 +5488,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
@@ -368,9 +368,6 @@
     <t>garagengebaeude</t>
   </si>
   <si>
-    <t>gastronomiebtrieb</t>
-  </si>
-  <si>
     <t>gewerbepark</t>
   </si>
   <si>
@@ -795,6 +792,9 @@
   </si>
   <si>
     <t>durchgangsstrasse</t>
+  </si>
+  <si>
+    <t>gastronomiebetrieb</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1612,7 +1612,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -1620,7 +1620,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>55</v>
@@ -1629,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -1644,13 +1644,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1659,13 +1659,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>10</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>57</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>30</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>32</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>8</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>58</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1921,15 +1921,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>31</v>
@@ -1938,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>33</v>
@@ -1953,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -1968,28 +1968,28 @@
         <v>8</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>59</v>
@@ -1998,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>60</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>62</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>61</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>38</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>39</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>40</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>41</v>
@@ -2130,15 +2130,15 @@
         <v>8</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
@@ -2147,13 +2147,13 @@
         <v>11</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>43</v>
@@ -2162,13 +2162,13 @@
         <v>11</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
@@ -2177,13 +2177,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>45</v>
@@ -2192,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
@@ -2207,13 +2207,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -2222,13 +2222,13 @@
         <v>11</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
@@ -2237,13 +2237,13 @@
         <v>11</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>49</v>
@@ -2252,13 +2252,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -2267,13 +2267,13 @@
         <v>11</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>51</v>
@@ -2282,13 +2282,13 @@
         <v>11</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
@@ -2297,13 +2297,13 @@
         <v>11</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>53</v>
@@ -2316,22 +2316,22 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>54</v>
@@ -2344,25 +2344,25 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>63</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>64</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2475,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18">
       <c r="A1" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1"/>
@@ -2514,7 +2514,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>29</v>
@@ -2529,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>35</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>62</v>
@@ -2559,10 +2559,10 @@
         <v>54</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC3" s="34" t="s">
         <v>63</v>
@@ -2571,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="AE3" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" thickTop="1">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2692,61 +2692,61 @@
         <v>69</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>84</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="X5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>83</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -2769,73 +2769,73 @@
         <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>23</v>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2858,37 +2858,37 @@
         <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="M7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>70</v>
@@ -2897,19 +2897,19 @@
         <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>2</v>
@@ -2931,42 +2931,42 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>85</v>
@@ -2975,13 +2975,13 @@
         <v>85</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>4</v>
@@ -2997,46 +2997,46 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>85</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
@@ -3055,36 +3055,36 @@
         <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>76</v>
@@ -3106,29 +3106,29 @@
         <v>77</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3141,14 +3141,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3164,7 +3164,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>98</v>
@@ -3187,11 +3187,11 @@
         <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3224,10 +3224,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
@@ -3258,11 +3258,11 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>91</v>
@@ -3300,14 +3300,14 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3338,14 +3338,14 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3411,11 +3411,11 @@
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
@@ -3481,11 +3481,11 @@
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="9" t="s">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3685,10 +3685,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3786,11 +3786,11 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3820,11 +3820,11 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1"/>
       <c r="D31" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3854,12 +3854,12 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7"/>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7"/>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7"/>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7"/>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="7"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="7"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="7"/>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="7"/>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="7"/>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="7"/>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="7"/>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="7"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="7"/>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="7"/>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="7"/>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>

--- a/doc/micro_api_parameter.xlsx
+++ b/doc/micro_api_parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Mikro-API-Parameter" sheetId="5" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>inneroertliche_lage</t>
   </si>
   <si>
-    <t>stadtteilzentrum_check</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
@@ -795,6 +792,9 @@
   </si>
   <si>
     <t>gastronomiebetrieb</t>
+  </si>
+  <si>
+    <t>stadtteilzentrum_naehe</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1612,7 +1612,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -1620,804 +1620,804 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" s="29"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="29"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E46" s="29"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="30"/>
@@ -2437,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -2475,103 +2475,103 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18">
       <c r="A1" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1"/>
     <row r="3" spans="1:31" ht="16" thickTop="1" thickBot="1">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="P3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="T3" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AD3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="AE3" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" thickTop="1">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>0</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2683,76 +2683,76 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>1</v>
@@ -2761,84 +2761,84 @@
         <v>1</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>2</v>
@@ -2850,66 +2850,66 @@
         <v>2</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="V7" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>2</v>
@@ -2927,61 +2927,61 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="M8" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>4</v>
@@ -2993,50 +2993,50 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC9" s="9" t="s">
         <v>5</v>
@@ -3048,43 +3048,43 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AC10" s="1"/>
@@ -3092,43 +3092,43 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3137,18 +3137,18 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3164,13 +3164,13 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -3180,18 +3180,18 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3207,7 +3207,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3220,18 +3220,18 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3258,18 +3258,18 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3296,18 +3296,18 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3334,18 +3334,18 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3372,15 +3372,15 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3407,15 +3407,15 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3442,15 +3442,15 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3477,15 +3477,15 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3512,15 +3512,15 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1"/>
       <c r="D22" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3547,11 +3547,11 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -3579,11 +3579,11 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1"/>
       <c r="D24" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3613,11 +3613,11 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3647,11 +3647,11 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3681,14 +3681,14 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3718,11 +3718,11 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3752,11 +3752,11 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3786,11 +3786,11 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3820,11 +3820,11 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1"/>
       <c r="D31" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3854,12 +3854,12 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3889,12 +3889,12 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7"/>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7"/>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7"/>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7"/>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7"/>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7"/>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7"/>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7"/>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7"/>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="7"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="7"/>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="7"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="7"/>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="7"/>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="7"/>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="7"/>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="7"/>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="7"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="7"/>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="7"/>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="7"/>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
